--- a/data/DISEASESBACTERIA.xlsx
+++ b/data/DISEASESBACTERIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC9F825-BA38-4F25-BAC5-61EA07F5C4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B98F51D-1836-43CE-9B1F-9AC6BA5744DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B2DAEF5-4A48-4AD8-B1E1-E6CF62C6799E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Antibiotics</t>
   </si>
@@ -138,9 +138,6 @@
     <t>immune</t>
   </si>
   <si>
-    <t>hệ miễn dịch</t>
-  </si>
-  <si>
     <t>recover</t>
   </si>
   <si>
@@ -228,10 +225,755 @@
     <t>Từ vựng / Cụm từ (English)</t>
   </si>
   <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Nghĩa / Giải thích (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The doctor prescribed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>antibiotics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for the infection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regular exercise can help </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prevent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> heart disease.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Malaria is a common </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>infectious disease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in tropical regions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He suffered a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>serious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> injury in the car accident.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bacteria are single-celled </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>organisms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We examined the blood sample under a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>microscope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Water is a transparent, odorless </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>substance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Penicillin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> was the first antibiotic to be discovered.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bacteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> are beneficial to our digestive system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The scientist proved the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>existence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of a new species.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viruses are a type of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>microorganism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bread will grow </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> if left out for too long.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>capable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of running a marathon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>soldier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> was awarded a medal for bravery.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Keep the wound clean to avoid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>infection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The nurse cleaned and bandaged the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>widespread use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of smartphones has changed society.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is no known </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for the common cold yet.</t>
+    </r>
+  </si>
+  <si>
+    <t>hệ miễn dịch (adj: miễn dịch)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vaccines help the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>immune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> system fight diseases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It took him weeks to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>recover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from the surgery.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We need to work together to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>combat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> climate change.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He has an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>upper respiratory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> infection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some bacteria have become </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>resistant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to drugs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The nurse checked the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'s vital signs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I tried to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>convince</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> him to stop smoking.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tuberculosis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> primarily affects the lungs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>plague</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> killed millions of people in the Middle Ages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pertussis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is highly contagious among children.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have a sore throat; I might have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>strep throat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>influenza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> virus spreads easily in winter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Polio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> has been eradicated in many parts of the world.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Symptoms of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the common cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> include a runny nose.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hepatitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> affects the liver's function.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -247,17 +989,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,17 +1019,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -295,13 +1037,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,324 +1361,390 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B87204-A619-4DE1-9071-12F52CA9DA2E}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
